--- a/Code/Phreeqc_analysis_Al_Sens_Final.xlsx
+++ b/Code/Phreeqc_analysis_Al_Sens_Final.xlsx
@@ -4490,11 +4490,7 @@
           <t>-12.60</t>
         </is>
       </c>
-      <c r="CX8" t="inlineStr">
-        <is>
-          <t>NEP22-17</t>
-        </is>
-      </c>
+      <c r="CX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -4998,11 +4994,7 @@
           <t>-12.22</t>
         </is>
       </c>
-      <c r="CX9" t="inlineStr">
-        <is>
-          <t>NEP22-18</t>
-        </is>
-      </c>
+      <c r="CX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17190,11 +17182,7 @@
           <t>-12.91</t>
         </is>
       </c>
-      <c r="CX33" t="inlineStr">
-        <is>
-          <t>NEP24-050</t>
-        </is>
-      </c>
+      <c r="CX33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -17698,11 +17686,7 @@
           <t>-14.48</t>
         </is>
       </c>
-      <c r="CX34" t="inlineStr">
-        <is>
-          <t>NEP24-051</t>
-        </is>
-      </c>
+      <c r="CX34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -18206,11 +18190,7 @@
           <t>-12.78</t>
         </is>
       </c>
-      <c r="CX35" t="inlineStr">
-        <is>
-          <t>NEP24-052</t>
-        </is>
-      </c>
+      <c r="CX35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
